--- a/data/Sandbox.xlsx
+++ b/data/Sandbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\NW460\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDDF2E41-5B6C-4E22-AF2A-4F356EF2F778}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78009928-63D2-4000-9CF8-7FE32CE7AB3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E1E3FFA-6A0B-43F3-B281-E60FFC0FFA6D}"/>
   </bookViews>
@@ -151,7 +151,7 @@
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$29</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Sheet1 (2)'!$G$11:$G$29</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Sheet1 (2)'!$G$30</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Sheet1 (2)'!$B$5</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$30</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$30</definedName>
     <definedName name="solver_lhs8" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$14</definedName>
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$14</definedName>
@@ -159,7 +159,7 @@
     <definedName name="solver_mod" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ntr" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ntri" hidden="1">1000</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">7</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">6</definedName>
     <definedName name="solver_obc" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_obp" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Sheet1 (2)'!$I$30</definedName>
@@ -202,7 +202,7 @@
     <definedName name="solver_rel3" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">4</definedName>
@@ -210,7 +210,7 @@
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">5000</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Sheet1 (2)'!$J$11:$J$29</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">11000</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">95000</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">105000</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">105000</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsmp" hidden="1">2</definedName>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>Area</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Min area to cover</t>
+  </si>
+  <si>
+    <t>Population</t>
   </si>
 </sst>
 </file>
@@ -670,7 +673,7 @@
   <dimension ref="A3:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,6 +711,12 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1600</v>
+      </c>
       <c r="J6">
         <v>20</v>
       </c>

--- a/data/Sandbox.xlsx
+++ b/data/Sandbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\NW460\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78009928-63D2-4000-9CF8-7FE32CE7AB3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC63C5E-7C2B-44A4-85F6-8C6622000982}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E1E3FFA-6A0B-43F3-B281-E60FFC0FFA6D}"/>
   </bookViews>
@@ -152,14 +152,14 @@
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Sheet1 (2)'!$G$11:$G$29</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Sheet1 (2)'!$G$30</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$30</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$30</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$21</definedName>
     <definedName name="solver_lhs8" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$14</definedName>
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$14</definedName>
     <definedName name="solver_mda" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_mod" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ntr" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ntri" hidden="1">1000</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">6</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">7</definedName>
     <definedName name="solver_obc" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_obp" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Sheet1 (2)'!$I$30</definedName>
@@ -211,7 +211,7 @@
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Sheet1 (2)'!$J$11:$J$29</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">11000</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">105000</definedName>
-    <definedName name="solver_rhs7" localSheetId="0" hidden="1">105000</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'Sheet1 (2)'!$B$6</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsmp" hidden="1">2</definedName>
     <definedName name="solver_rtr" localSheetId="0" hidden="1">0</definedName>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>Area</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>Population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deer population </t>
   </si>
 </sst>
 </file>
@@ -673,7 +676,7 @@
   <dimension ref="A3:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,10 +718,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1600</v>
+        <v>16000</v>
       </c>
       <c r="J6">
-        <v>20</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <f ca="1">INT(_xll.PsiUniform(E7,G7)/10)</f>
+        <v>300</v>
+      </c>
+      <c r="E7">
+        <v>2000</v>
+      </c>
+      <c r="G7">
+        <v>4000</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -797,23 +815,23 @@
         <v>34</v>
       </c>
       <c r="F12">
-        <v>4320</v>
+        <v>4762</v>
       </c>
       <c r="G12">
         <f t="shared" ref="G12:G29" si="1">F12/E12*B12</f>
-        <v>127.05882352941177</v>
+        <v>140.05882352941177</v>
       </c>
       <c r="H12">
         <f t="shared" ref="H12:H29" si="2">$B$4/$B$3*G12</f>
-        <v>2.8877005347593583</v>
+        <v>3.1831550802139037</v>
       </c>
       <c r="I12">
         <f>H12*(1-D12)</f>
-        <v>0.40427807486631018</v>
+        <v>0.44564171122994656</v>
       </c>
       <c r="J12">
         <f t="shared" ref="J12:J29" si="3">B12*$J$6</f>
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -833,23 +851,23 @@
         <v>34</v>
       </c>
       <c r="F13">
-        <v>680</v>
+        <v>238</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>0.45454545454545459</v>
+        <v>0.15909090909090909</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>0.14090909090909096</v>
+        <v>4.9318181818181824E-2</v>
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -941,23 +959,23 @@
         <v>42.5</v>
       </c>
       <c r="F16">
-        <v>850</v>
+        <v>298</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>7.0117647058823529</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>0.45454545454545459</v>
+        <v>0.15935828877005348</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>0.14090909090909096</v>
+        <v>4.9401069518716589E-2</v>
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -977,23 +995,23 @@
         <v>251.29999999999998</v>
       </c>
       <c r="F17">
-        <v>5026</v>
+        <v>1760</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>7.0035813768404305</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>0.45454545454545459</v>
+        <v>0.15917230401910071</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>1.363636363636365E-2</v>
+        <v>4.7751691205730256E-3</v>
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1013,23 +1031,23 @@
         <v>45.638666666666666</v>
       </c>
       <c r="F18">
-        <v>913</v>
+        <v>320</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>20.004966548832861</v>
+        <v>7.0115983522743877</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>0.45465833065529232</v>
+        <v>0.1593545080062361</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>0.25006208186041079</v>
+        <v>8.7644979403429857E-2</v>
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1049,23 +1067,23 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>0.45454545454545459</v>
+        <v>0.15909090909090909</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>1.363636363636365E-2</v>
+        <v>4.7727272727272766E-3</v>
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1121,23 +1139,23 @@
         <v>2015</v>
       </c>
       <c r="F21">
-        <v>40300</v>
+        <v>14105</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>0.45454545454545459</v>
+        <v>0.15909090909090909</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>2.2727272727272749E-2</v>
+        <v>7.9545454545454607E-3</v>
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1157,23 +1175,23 @@
         <v>2</v>
       </c>
       <c r="F22">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>0.45454545454545459</v>
+        <v>0.15909090909090909</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>1.363636363636365E-2</v>
+        <v>4.7727272727272766E-3</v>
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1193,23 +1211,23 @@
         <v>59.63333333333334</v>
       </c>
       <c r="F23">
-        <v>1193</v>
+        <v>418</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>20.005589714924536</v>
+        <v>7.0095025153717154</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>0.45467249352101219</v>
+        <v>0.15930687534935717</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>4.5467249352101257E-3</v>
+        <v>1.5930687534935731E-3</v>
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1229,23 +1247,23 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>440</v>
+        <v>154</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>0.45454545454545459</v>
+        <v>0.15909090909090909</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>0.28181818181818186</v>
+        <v>9.8636363636363633E-2</v>
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1265,23 +1283,23 @@
         <v>18</v>
       </c>
       <c r="F25">
-        <v>360</v>
+        <v>126</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>0.45454545454545459</v>
+        <v>0.15909090909090909</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>0.28181818181818186</v>
+        <v>9.8636363636363633E-2</v>
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1301,23 +1319,23 @@
         <v>18</v>
       </c>
       <c r="F26">
-        <v>360</v>
+        <v>126</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>0.45454545454545459</v>
+        <v>0.15909090909090909</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>5.9090909090909097E-2</v>
+        <v>2.0681818181818183E-2</v>
       </c>
       <c r="J26">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1337,23 +1355,23 @@
         <v>22</v>
       </c>
       <c r="F27">
-        <v>440</v>
+        <v>154</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>0.45454545454545459</v>
+        <v>0.15909090909090909</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>0.19545454545454549</v>
+        <v>6.8409090909090919E-2</v>
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1373,15 +1391,15 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>45360</v>
+        <v>80873</v>
       </c>
       <c r="G28">
         <f>F28/E28*B28</f>
-        <v>22680</v>
+        <v>40436.5</v>
       </c>
       <c r="H28">
         <f>$B$4/$B$3*G28</f>
-        <v>515.4545454545455</v>
+        <v>919.01136363636363</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
@@ -1389,7 +1407,7 @@
       </c>
       <c r="J28">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1409,15 +1427,15 @@
         <v>233.88</v>
       </c>
       <c r="F29">
-        <v>4678</v>
+        <v>1638</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>20.001710278775441</v>
+        <v>7.003591585428425</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>0.45458432451762365</v>
+        <v>0.1591725360324642</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
@@ -1425,7 +1443,7 @@
       </c>
       <c r="J29">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1435,15 +1453,15 @@
       </c>
       <c r="G30">
         <f>SUM(G12:G29)</f>
-        <v>23067.071090071946</v>
+        <v>40667.598862065213</v>
       </c>
       <c r="H30">
         <f>SUM(H11:H29)</f>
-        <v>524.25161568345334</v>
+        <v>924.26361050148193</v>
       </c>
       <c r="I30">
         <f>SUM(I11:I29)</f>
-        <v>1.8225232452982951</v>
+        <v>0.94223781620797764</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">

--- a/data/Sandbox.xlsx
+++ b/data/Sandbox.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\NW460\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC63C5E-7C2B-44A4-85F6-8C6622000982}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D468F369-C6D7-4226-B5EB-DF7283C690E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E1E3FFA-6A0B-43F3-B281-E60FFC0FFA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$29</definedName>
@@ -150,16 +149,16 @@
     <definedName name="solver_lhs20" localSheetId="0" hidden="1">'Sheet1 (2)'!$B$20</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$29</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Sheet1 (2)'!$G$11:$G$29</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Sheet1 (2)'!$G$30</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$30</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$21</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$14</definedName>
-    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$14</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$30</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$21</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Sheet1 (2)'!$G$30</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'Sheet1 (2)'!$G$30</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'Sheet1 (2)'!$G$30</definedName>
     <definedName name="solver_mda" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_mod" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ntr" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ntri" hidden="1">1000</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">7</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">9</definedName>
     <definedName name="solver_obc" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_obp" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Sheet1 (2)'!$I$30</definedName>
@@ -201,17 +200,19 @@
     <definedName name="solver_rel20" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel5" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel8" localSheetId="0" hidden="1">4</definedName>
-    <definedName name="solver_rel9" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel7" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel8" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">5000</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Sheet1 (2)'!$J$11:$J$29</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">11000</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">105000</definedName>
-    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'Sheet1 (2)'!$B$6</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">105000</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'Sheet1 (2)'!$B$6</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'Sheet1 (2)'!$B$3</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">10000</definedName>
+    <definedName name="solver_rhs9" localSheetId="0" hidden="1">11500</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsmp" hidden="1">2</definedName>
     <definedName name="solver_rtr" localSheetId="0" hidden="1">0</definedName>
@@ -268,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Area</t>
   </si>
@@ -312,13 +313,143 @@
   </si>
   <si>
     <t xml:space="preserve">Deer population </t>
+  </si>
+  <si>
+    <t>Bifenthrin</t>
+  </si>
+  <si>
+    <t>Cyfluthrin</t>
+  </si>
+  <si>
+    <t>Deltamethrin</t>
+  </si>
+  <si>
+    <t>Chlorpyrifos</t>
+  </si>
+  <si>
+    <t>Diazinon</t>
+  </si>
+  <si>
+    <t>Carbaryl</t>
+  </si>
+  <si>
+    <t>Fungal</t>
+  </si>
+  <si>
+    <t>Deer Control</t>
+  </si>
+  <si>
+    <t>4-poster device</t>
+  </si>
+  <si>
+    <t>Pyrethrin soap</t>
+  </si>
+  <si>
+    <t>Nootkatone</t>
+  </si>
+  <si>
+    <t>Carvacrol</t>
+  </si>
+  <si>
+    <t>Natural Methods</t>
+  </si>
+  <si>
+    <t>Deer fence</t>
+  </si>
+  <si>
+    <t>Tick Tubes</t>
+  </si>
+  <si>
+    <r>
+      <t>Permethrin</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fipronil</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Doxycyline hyclate bait</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vaccine with </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.3000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E. coli</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.3000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expressing OspA</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,8 +457,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.3000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.3000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +491,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,12 +513,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC11EF3-7CB2-41E6-B1E6-014651F3BD09}">
-  <dimension ref="A3:J31"/>
+  <dimension ref="A3:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,9 +853,10 @@
     <col min="8" max="8" width="13.77734375" customWidth="1"/>
     <col min="9" max="9" width="18.5546875" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" customWidth="1"/>
+    <col min="12" max="12" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -697,7 +864,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -705,7 +872,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -713,7 +880,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -724,7 +891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -739,7 +906,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>2</v>
       </c>
@@ -762,7 +929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -797,8 +964,11 @@
         <f>B11*$J$6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -833,8 +1003,11 @@
         <f t="shared" ref="J12:J29" si="3">B12*$J$6</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -869,8 +1042,11 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -905,8 +1081,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -941,8 +1120,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L15" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -977,8 +1159,11 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1013,8 +1198,11 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1049,8 +1237,11 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1085,8 +1276,11 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L19" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1121,8 +1315,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L20" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1157,8 +1354,11 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L21" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1193,8 +1393,11 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L22" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1229,8 +1432,11 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L23" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1265,8 +1471,11 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L24" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1301,8 +1510,11 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L25" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1337,8 +1549,11 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L26" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1373,8 +1588,11 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L27" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1391,15 +1609,15 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>80873</v>
+        <v>21538</v>
       </c>
       <c r="G28">
         <f>F28/E28*B28</f>
-        <v>40436.5</v>
+        <v>10769</v>
       </c>
       <c r="H28">
         <f>$B$4/$B$3*G28</f>
-        <v>919.01136363636363</v>
+        <v>244.75</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
@@ -1409,8 +1627,11 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L28" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1445,26 +1666,29 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L29" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F30">
         <f>SUMPRODUCT(F11:F29,B11:B29)</f>
-        <v>105000</v>
+        <v>45665</v>
       </c>
       <c r="G30">
         <f>SUM(G12:G29)</f>
-        <v>40667.598862065213</v>
+        <v>11000.098862065208</v>
       </c>
       <c r="H30">
         <f>SUM(H11:H29)</f>
-        <v>924.26361050148193</v>
+        <v>250.00224686511839</v>
       </c>
       <c r="I30">
         <f>SUM(I11:I29)</f>
         <v>0.94223781620797764</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>SUM(B11:B15,B19,B20)</f>
         <v>3</v>
@@ -1477,16 +1701,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A63EF3C-4EE8-45D7-933E-900629EA9AB2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/Sandbox.xlsx
+++ b/data/Sandbox.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\NW460\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D468F369-C6D7-4226-B5EB-DF7283C690E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2054F946-B086-47FE-A276-85009EF24DA9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E1E3FFA-6A0B-43F3-B281-E60FFC0FFA6D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0E1E3FFA-6A0B-43F3-B281-E60FFC0FFA6D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId1"/>
+    <sheet name="Results" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$29</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Model!$F$11:$F$29</definedName>
     <definedName name="solver_adj_ob" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_adj_ob1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_adj_ob2" localSheetId="0" hidden="1">1</definedName>
@@ -134,34 +135,34 @@
     <definedName name="solver_lhs_ob7" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob8" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob9" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$29</definedName>
-    <definedName name="solver_lhs10" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$14</definedName>
-    <definedName name="solver_lhs11" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$14</definedName>
-    <definedName name="solver_lhs12" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$14</definedName>
-    <definedName name="solver_lhs13" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$14</definedName>
-    <definedName name="solver_lhs14" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$14</definedName>
-    <definedName name="solver_lhs15" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$14</definedName>
-    <definedName name="solver_lhs16" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$14</definedName>
-    <definedName name="solver_lhs17" localSheetId="0" hidden="1">'Sheet1 (2)'!$B$20</definedName>
-    <definedName name="solver_lhs18" localSheetId="0" hidden="1">'Sheet1 (2)'!$B$20</definedName>
-    <definedName name="solver_lhs19" localSheetId="0" hidden="1">'Sheet1 (2)'!$B$20</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$31</definedName>
-    <definedName name="solver_lhs20" localSheetId="0" hidden="1">'Sheet1 (2)'!$B$20</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$29</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Sheet1 (2)'!$G$11:$G$29</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$30</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$21</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Sheet1 (2)'!$G$30</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'Sheet1 (2)'!$G$30</definedName>
-    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'Sheet1 (2)'!$G$30</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Model!$F$11:$F$29</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">Model!$B$31</definedName>
+    <definedName name="solver_lhs11" localSheetId="0" hidden="1">Model!$F$11:$F$14</definedName>
+    <definedName name="solver_lhs12" localSheetId="0" hidden="1">Model!$F$11:$F$14</definedName>
+    <definedName name="solver_lhs13" localSheetId="0" hidden="1">Model!$F$11:$F$14</definedName>
+    <definedName name="solver_lhs14" localSheetId="0" hidden="1">Model!$F$11:$F$14</definedName>
+    <definedName name="solver_lhs15" localSheetId="0" hidden="1">Model!$F$11:$F$14</definedName>
+    <definedName name="solver_lhs16" localSheetId="0" hidden="1">Model!$F$11:$F$14</definedName>
+    <definedName name="solver_lhs17" localSheetId="0" hidden="1">Model!$B$20</definedName>
+    <definedName name="solver_lhs18" localSheetId="0" hidden="1">Model!$B$20</definedName>
+    <definedName name="solver_lhs19" localSheetId="0" hidden="1">Model!$B$20</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Model!$F$31</definedName>
+    <definedName name="solver_lhs20" localSheetId="0" hidden="1">Model!$B$20</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Model!$F$11:$F$29</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Model!$G$11:$G$29</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Model!$F$21</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Model!$G$30</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Model!$G$30</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">Model!$F$30</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">Model!$F$30</definedName>
     <definedName name="solver_mda" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_mod" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ntr" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ntri" hidden="1">1000</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">9</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">10</definedName>
     <definedName name="solver_obc" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_obp" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Sheet1 (2)'!$I$30</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Model!$I$30</definedName>
     <definedName name="solver_opt_ob" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_psi" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rdp" localSheetId="0" hidden="1">0</definedName>
@@ -186,7 +187,7 @@
     <definedName name="solver_reco8" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_reco9" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel10" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel10" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel11" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel12" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel13" localSheetId="0" hidden="1">4</definedName>
@@ -201,18 +202,19 @@
     <definedName name="solver_rel3" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel7" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel8" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel9" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">5000</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Sheet1 (2)'!$J$11:$J$29</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">105000</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'Sheet1 (2)'!$B$6</definedName>
-    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'Sheet1 (2)'!$B$3</definedName>
-    <definedName name="solver_rhs8" localSheetId="0" hidden="1">10000</definedName>
-    <definedName name="solver_rhs9" localSheetId="0" hidden="1">11500</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Model!$J$11:$J$29</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Model!$B$6</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">Model!$E$3</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">Model!$G$3</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">Model!$G$5</definedName>
+    <definedName name="solver_rhs9" localSheetId="0" hidden="1">Model!$E$5</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsmp" hidden="1">2</definedName>
     <definedName name="solver_rtr" localSheetId="0" hidden="1">0</definedName>
@@ -269,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t>Area</t>
   </si>
@@ -444,12 +446,111 @@
       <t>b</t>
     </r>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Prevention Method</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
+  <si>
+    <t>X11</t>
+  </si>
+  <si>
+    <t>X12</t>
+  </si>
+  <si>
+    <t>X13</t>
+  </si>
+  <si>
+    <t>X14</t>
+  </si>
+  <si>
+    <t>X15</t>
+  </si>
+  <si>
+    <t>X16</t>
+  </si>
+  <si>
+    <t>X17</t>
+  </si>
+  <si>
+    <t>X18</t>
+  </si>
+  <si>
+    <t>X19</t>
+  </si>
+  <si>
+    <t>Selected</t>
+  </si>
+  <si>
+    <t>Cost per unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimal area to cover </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Chemicals used </t>
+  </si>
+  <si>
+    <t>Total Case reduction</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,8 +581,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,8 +624,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -509,11 +651,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -525,9 +787,64 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -841,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC11EF3-7CB2-41E6-B1E6-014651F3BD09}">
   <dimension ref="A3:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,7 +1178,13 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>11000</v>
+        <v>23000</v>
+      </c>
+      <c r="E3">
+        <v>22000</v>
+      </c>
+      <c r="G3">
+        <v>23000</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -877,7 +1200,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>100000</v>
+        <v>200000</v>
+      </c>
+      <c r="E5">
+        <v>195000</v>
+      </c>
+      <c r="G5">
+        <v>205000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -885,7 +1214,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="J6">
         <v>7</v>
@@ -897,7 +1226,7 @@
       </c>
       <c r="C7">
         <f ca="1">INT(_xll.PsiUniform(E7,G7)/10)</f>
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="E7">
         <v>2000</v>
@@ -993,11 +1322,11 @@
       </c>
       <c r="H12">
         <f t="shared" ref="H12:H29" si="2">$B$4/$B$3*G12</f>
-        <v>3.1831550802139037</v>
+        <v>1.5223785166240409</v>
       </c>
       <c r="I12">
         <f>H12*(1-D12)</f>
-        <v>0.44564171122994656</v>
+        <v>0.21313299232736574</v>
       </c>
       <c r="J12">
         <f t="shared" ref="J12:J29" si="3">B12*$J$6</f>
@@ -1032,11 +1361,11 @@
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>0.15909090909090909</v>
+        <v>7.6086956521739135E-2</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>4.9318181818181824E-2</v>
+        <v>2.3586956521739137E-2</v>
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
@@ -1149,11 +1478,11 @@
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>0.15935828877005348</v>
+        <v>7.6214833759590789E-2</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>4.9401069518716589E-2</v>
+        <v>2.3626598465473148E-2</v>
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
@@ -1188,11 +1517,11 @@
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>0.15917230401910071</v>
+        <v>7.6125884530874238E-2</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>4.7751691205730256E-3</v>
+        <v>2.2837765359262291E-3</v>
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
@@ -1227,11 +1556,11 @@
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>0.1593545080062361</v>
+        <v>7.6213025568199866E-2</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>8.7644979403429857E-2</v>
+        <v>4.1917164062509928E-2</v>
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
@@ -1266,11 +1595,11 @@
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>0.15909090909090909</v>
+        <v>7.6086956521739135E-2</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>4.7727272727272766E-3</v>
+        <v>2.2826086956521763E-3</v>
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
@@ -1285,7 +1614,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -1297,23 +1626,23 @@
         <v>2015</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>14105</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.6086956521739135E-2</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.7173913043478261E-2</v>
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>31</v>
@@ -1344,11 +1673,11 @@
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>0.15909090909090909</v>
+        <v>7.6086956521739135E-2</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>7.9545454545454607E-3</v>
+        <v>3.8043478260869601E-3</v>
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
@@ -1383,11 +1712,11 @@
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>0.15909090909090909</v>
+        <v>7.6086956521739135E-2</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>4.7727272727272766E-3</v>
+        <v>2.2826086956521763E-3</v>
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
@@ -1422,11 +1751,11 @@
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>0.15930687534935717</v>
+        <v>7.6190244732301252E-2</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>1.5930687534935731E-3</v>
+        <v>7.6190244732301322E-4</v>
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
@@ -1461,11 +1790,11 @@
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>0.15909090909090909</v>
+        <v>7.6086956521739135E-2</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>9.8636363636363633E-2</v>
+        <v>4.7173913043478261E-2</v>
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
@@ -1500,11 +1829,11 @@
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>0.15909090909090909</v>
+        <v>7.6086956521739135E-2</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>9.8636363636363633E-2</v>
+        <v>4.7173913043478261E-2</v>
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
@@ -1539,11 +1868,11 @@
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>0.15909090909090909</v>
+        <v>7.6086956521739135E-2</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>2.0681818181818183E-2</v>
+        <v>9.8913043478260874E-3</v>
       </c>
       <c r="J26">
         <f t="shared" si="3"/>
@@ -1553,7 +1882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1578,11 +1907,11 @@
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>0.15909090909090909</v>
+        <v>7.6086956521739135E-2</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>6.8409090909090919E-2</v>
+        <v>3.271739130434783E-2</v>
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
@@ -1609,15 +1938,15 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>21538</v>
+        <v>42461</v>
       </c>
       <c r="G28">
         <f>F28/E28*B28</f>
-        <v>10769</v>
+        <v>21230.5</v>
       </c>
       <c r="H28">
         <f>$B$4/$B$3*G28</f>
-        <v>244.75</v>
+        <v>230.76630434782609</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
@@ -1648,15 +1977,15 @@
         <v>233.88</v>
       </c>
       <c r="F29">
-        <v>1638</v>
+        <v>125923</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>7.003591585428425</v>
+        <v>538.40858559945275</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>0.1591725360324642</v>
+        <v>5.8522672347766598</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
@@ -1673,29 +2002,762 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F30">
         <f>SUMPRODUCT(F11:F29,B11:B29)</f>
-        <v>45665</v>
+        <v>204978</v>
       </c>
       <c r="G30">
         <f>SUM(G12:G29)</f>
-        <v>11000.098862065208</v>
+        <v>22000.003856079235</v>
       </c>
       <c r="H30">
         <f>SUM(H11:H29)</f>
-        <v>250.00224686511839</v>
+        <v>239.13047669651343</v>
       </c>
       <c r="I30">
         <f>SUM(I11:I29)</f>
-        <v>0.94223781620797764</v>
+        <v>0.49780939036033717</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>SUM(B11:B15,B19,B20)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31">
         <f>SUMPRODUCT(B11:B15,F11:F15)</f>
         <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F256ADD-0586-4811-8134-823BD5028336}">
+  <dimension ref="B1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="28.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>23000</v>
+      </c>
+      <c r="E3" s="9">
+        <v>22000</v>
+      </c>
+      <c r="F3" s="10">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>250</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="14">
+        <v>200000</v>
+      </c>
+      <c r="E5" s="14">
+        <v>195000</v>
+      </c>
+      <c r="F5" s="15">
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9">
+        <v>18000</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9">
+        <f ca="1">INT(_xll.PsiUniform(E7,F7)/10)</f>
+        <v>232</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="10">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="16">
+        <v>7</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="20">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0.86</v>
+      </c>
+      <c r="F12" s="14">
+        <v>100.60000000000001</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29">
+        <v>0</v>
+      </c>
+      <c r="I12" s="30">
+        <v>0</v>
+      </c>
+      <c r="J12" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="18">
+        <v>1</v>
+      </c>
+      <c r="E13" s="28">
+        <v>0.86</v>
+      </c>
+      <c r="F13" s="14">
+        <v>34</v>
+      </c>
+      <c r="G13" s="14">
+        <v>4762</v>
+      </c>
+      <c r="H13" s="29">
+        <v>140.05882352941177</v>
+      </c>
+      <c r="I13" s="30">
+        <v>1.5223785166240409</v>
+      </c>
+      <c r="J13" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="18">
+        <v>1</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0.69</v>
+      </c>
+      <c r="F14" s="14">
+        <v>34</v>
+      </c>
+      <c r="G14" s="14">
+        <v>238</v>
+      </c>
+      <c r="H14" s="29">
+        <v>7</v>
+      </c>
+      <c r="I14" s="30">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0</v>
+      </c>
+      <c r="E15" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="F15" s="14">
+        <v>59.5</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0</v>
+      </c>
+      <c r="H15" s="29">
+        <v>0</v>
+      </c>
+      <c r="I15" s="30">
+        <v>0</v>
+      </c>
+      <c r="J15" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0</v>
+      </c>
+      <c r="E16" s="28">
+        <v>0.88</v>
+      </c>
+      <c r="F16" s="14">
+        <v>34</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29">
+        <v>0</v>
+      </c>
+      <c r="I16" s="30">
+        <v>0</v>
+      </c>
+      <c r="J16" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="33">
+        <v>1</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0.69</v>
+      </c>
+      <c r="F17" s="14">
+        <v>42.5</v>
+      </c>
+      <c r="G17" s="14">
+        <v>298</v>
+      </c>
+      <c r="H17" s="29">
+        <v>7.0117647058823529</v>
+      </c>
+      <c r="I17" s="30">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="33">
+        <v>1</v>
+      </c>
+      <c r="E18" s="28">
+        <v>0.97</v>
+      </c>
+      <c r="F18" s="14">
+        <v>251.29999999999998</v>
+      </c>
+      <c r="G18" s="14">
+        <v>1760</v>
+      </c>
+      <c r="H18" s="29">
+        <v>7.0035813768404305</v>
+      </c>
+      <c r="I18" s="30">
+        <v>1</v>
+      </c>
+      <c r="J18" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B19" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="33">
+        <v>1</v>
+      </c>
+      <c r="E19" s="28">
+        <v>0.45</v>
+      </c>
+      <c r="F19" s="14">
+        <v>45.638666666666666</v>
+      </c>
+      <c r="G19" s="14">
+        <v>320</v>
+      </c>
+      <c r="H19" s="29">
+        <v>7.0115983522743877</v>
+      </c>
+      <c r="I19" s="30">
+        <v>1</v>
+      </c>
+      <c r="J19" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B20" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="18">
+        <v>1</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0.97</v>
+      </c>
+      <c r="F20" s="14">
+        <v>2</v>
+      </c>
+      <c r="G20" s="14">
+        <v>14</v>
+      </c>
+      <c r="H20" s="29">
+        <v>7</v>
+      </c>
+      <c r="I20" s="30">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1</v>
+      </c>
+      <c r="E21" s="28">
+        <v>0.38</v>
+      </c>
+      <c r="F21" s="14">
+        <v>2015</v>
+      </c>
+      <c r="G21" s="14">
+        <v>14105</v>
+      </c>
+      <c r="H21" s="29">
+        <v>7</v>
+      </c>
+      <c r="I21" s="30">
+        <v>1</v>
+      </c>
+      <c r="J21" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="33">
+        <v>1</v>
+      </c>
+      <c r="E22" s="28">
+        <v>0.95</v>
+      </c>
+      <c r="F22" s="14">
+        <v>2015</v>
+      </c>
+      <c r="G22" s="14">
+        <v>14105</v>
+      </c>
+      <c r="H22" s="29">
+        <v>7</v>
+      </c>
+      <c r="I22" s="30">
+        <v>1</v>
+      </c>
+      <c r="J22" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="34">
+        <v>1</v>
+      </c>
+      <c r="E23" s="28">
+        <v>0.97</v>
+      </c>
+      <c r="F23" s="14">
+        <v>2</v>
+      </c>
+      <c r="G23" s="14">
+        <v>14</v>
+      </c>
+      <c r="H23" s="29">
+        <v>7</v>
+      </c>
+      <c r="I23" s="30">
+        <v>1</v>
+      </c>
+      <c r="J23" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="34">
+        <v>1</v>
+      </c>
+      <c r="E24" s="28">
+        <v>0.99</v>
+      </c>
+      <c r="F24" s="14">
+        <v>59.63333333333334</v>
+      </c>
+      <c r="G24" s="14">
+        <v>418</v>
+      </c>
+      <c r="H24" s="29">
+        <v>7.0095025153717154</v>
+      </c>
+      <c r="I24" s="30">
+        <v>1</v>
+      </c>
+      <c r="J24" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="33">
+        <v>1</v>
+      </c>
+      <c r="E25" s="28">
+        <v>0.38</v>
+      </c>
+      <c r="F25" s="14">
+        <v>22</v>
+      </c>
+      <c r="G25" s="14">
+        <v>154</v>
+      </c>
+      <c r="H25" s="29">
+        <v>7</v>
+      </c>
+      <c r="I25" s="30">
+        <v>1</v>
+      </c>
+      <c r="J25" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="33">
+        <v>1</v>
+      </c>
+      <c r="E26" s="28">
+        <v>0.38</v>
+      </c>
+      <c r="F26" s="14">
+        <v>18</v>
+      </c>
+      <c r="G26" s="14">
+        <v>126</v>
+      </c>
+      <c r="H26" s="29">
+        <v>7</v>
+      </c>
+      <c r="I26" s="30">
+        <v>1</v>
+      </c>
+      <c r="J26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="33">
+        <v>1</v>
+      </c>
+      <c r="E27" s="28">
+        <v>0.87</v>
+      </c>
+      <c r="F27" s="14">
+        <v>18</v>
+      </c>
+      <c r="G27" s="14">
+        <v>126</v>
+      </c>
+      <c r="H27" s="29">
+        <v>7</v>
+      </c>
+      <c r="I27" s="30">
+        <v>1</v>
+      </c>
+      <c r="J27" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="33">
+        <v>1</v>
+      </c>
+      <c r="E28" s="28">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F28" s="14">
+        <v>22</v>
+      </c>
+      <c r="G28" s="14">
+        <v>154</v>
+      </c>
+      <c r="H28" s="29">
+        <v>7</v>
+      </c>
+      <c r="I28" s="30">
+        <v>1</v>
+      </c>
+      <c r="J28" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="33">
+        <v>1</v>
+      </c>
+      <c r="E29" s="28">
+        <v>0.98</v>
+      </c>
+      <c r="F29" s="14">
+        <v>2</v>
+      </c>
+      <c r="G29" s="14">
+        <v>42461</v>
+      </c>
+      <c r="H29" s="29">
+        <v>21230.5</v>
+      </c>
+      <c r="I29" s="30">
+        <v>230.76630434782609</v>
+      </c>
+      <c r="J29" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="37">
+        <v>1</v>
+      </c>
+      <c r="E30" s="38">
+        <v>0.98</v>
+      </c>
+      <c r="F30" s="39">
+        <v>233.88</v>
+      </c>
+      <c r="G30" s="39">
+        <v>125923</v>
+      </c>
+      <c r="H30" s="40">
+        <v>538.40858559945275</v>
+      </c>
+      <c r="I30" s="41">
+        <v>5.8522672347766598</v>
+      </c>
+      <c r="J30" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F31" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="22">
+        <v>204978</v>
+      </c>
+      <c r="H31" s="23">
+        <v>22000.003856079235</v>
+      </c>
+      <c r="I31" s="24">
+        <f>SUM(I13:I30)</f>
+        <v>251.14095009922679</v>
+      </c>
+      <c r="J31" s="25">
+        <f>SUM(J13:J30)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="8:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H33" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="19">
+        <f>I31-J31</f>
+        <v>218.14095009922679</v>
       </c>
     </row>
   </sheetData>
